--- a/HotelManage.DB/数据库设计.xlsx
+++ b/HotelManage.DB/数据库设计.xlsx
@@ -16,16 +16,405 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="113">
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotelEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆相关枚举项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotelID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房价（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(8,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckoutTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离店时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckinTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomHistoryCheckin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间入住历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OccupantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OccupantID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OccupantCertType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住人证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住人证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OccupantMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入住人手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>房间</t>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotelManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -33,419 +422,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HotelID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆管理人员，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WxOpenID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WxUnionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾馆ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信unionid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自增ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hotel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HotelEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾馆相关枚举项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnumClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HotelID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宾馆ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Room</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房价（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(8,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deposit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>押金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckoutTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离店时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckinTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomHistoryCheckin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间入住历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OccupantName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OccupantID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OccupantCertType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住人证件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住人证件号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OccupantMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入住人手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoomOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReserveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定时间</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F69"/>
+  <dimension ref="A2:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,804 +840,913 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E68" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
